--- a/Youngho/Rule2_Page/Rule2.xlsx
+++ b/Youngho/Rule2_Page/Rule2.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Capstone\Youngho\Rule2_Page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A1C86-6E00-48D0-B001-ACB2A35358B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B59F7F-D7F7-4C3B-AD5F-44089279A4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
     <sheet name="사이트" sheetId="2" r:id="rId2"/>
     <sheet name="사이트1" sheetId="3" r:id="rId3"/>
     <sheet name="사이트2" sheetId="4" r:id="rId4"/>
+    <sheet name="사이트3" sheetId="5" r:id="rId5"/>
+    <sheet name="사이트4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="583">
   <si>
     <t>해당 상품 사이트</t>
   </si>
@@ -201,6 +203,450 @@
     <t>모공 브러쉬</t>
   </si>
   <si>
+    <t>레드 이레이징 스팟 세럼</t>
+  </si>
+  <si>
+    <t>레드 이레이징 크림 + 스팟 세럼 SET</t>
+  </si>
+  <si>
+    <t>레드 이레이징 크림 + 스팟 세럼 + 레드 폼 클렌저 SET</t>
+  </si>
+  <si>
+    <t>레드 이레이징 스팟 세럼 리필(5mlX3)</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 제로 폼 클렌저</t>
+  </si>
+  <si>
+    <t>링거 마스크팩</t>
+  </si>
+  <si>
+    <t>레드 파운데이션 2.0 (리뉴얼)</t>
+  </si>
+  <si>
+    <t>노 트러블 밀착 퍼프</t>
+  </si>
+  <si>
+    <t>레드 파운데이션 2.0 + 레드 컨실러 SET</t>
+  </si>
+  <si>
+    <t>노 트러블 화장솜</t>
+  </si>
+  <si>
+    <t>제로모공 클렌징 SET</t>
+  </si>
+  <si>
+    <t>카무카무 비타 잡티 세럼</t>
+  </si>
+  <si>
+    <t>레드 이레이징 잡티 아웃 SET</t>
+  </si>
+  <si>
+    <t>제로 모공 2종 세트</t>
+  </si>
+  <si>
+    <t>레드 폼 클렌저+모공 브러쉬 SET</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 앰플 (40ml 대용량)</t>
+  </si>
+  <si>
+    <t>콜라겐 2종 세트</t>
+  </si>
+  <si>
+    <t>콜라겐 에센스 토너 3.0</t>
+  </si>
+  <si>
+    <t>트리플 콜라겐 세럼 3.0</t>
+  </si>
+  <si>
+    <t>제로모공패드 휴대용 케이스</t>
+  </si>
+  <si>
+    <t>레드라인 2.0 4종 SET</t>
+  </si>
+  <si>
+    <t>레드라인 2.0 플러스 4종 SET (여드름성 피부용)</t>
+  </si>
+  <si>
+    <t>레드 컨실러 (팁타입)</t>
+  </si>
+  <si>
+    <t>레드 센텔라카 마스크</t>
+  </si>
+  <si>
+    <t>트리플 콜라겐 크림</t>
+  </si>
+  <si>
+    <t>콜라겐 3종 세트 (사은품증정)</t>
+  </si>
+  <si>
+    <t>[사은품 증정] 7일기미앰플 2.0</t>
+  </si>
+  <si>
+    <t>레드 파운데이션 라이트</t>
+  </si>
+  <si>
+    <t>레드 아크네 바디워시</t>
+  </si>
+  <si>
+    <t>메디큐브 샤워볼</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 크림</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 2종 세트</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 토너</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 3종 세트</t>
+  </si>
+  <si>
+    <t>제로 모공 스페셜 세트</t>
+  </si>
+  <si>
+    <t>딥 리프팅 펩타이드 아이크림</t>
+  </si>
+  <si>
+    <t>딥 고기능 세트</t>
+  </si>
+  <si>
+    <t>딥 탄력 집중 세트 (콜라겐 3종 미니 5매 증정)</t>
+  </si>
+  <si>
+    <t>[1만원 추가 할인] 딥 비타 C 앰플</t>
+  </si>
+  <si>
+    <t>[80ml 리필 추가 증정] 레드 클렌징 오일</t>
+  </si>
+  <si>
+    <t>레드 딥클렌징 세트</t>
+  </si>
+  <si>
+    <t>레드 클리어링 바디로션</t>
+  </si>
+  <si>
+    <t>에이지알 더마 EMS 샷</t>
+  </si>
+  <si>
+    <t>프리미엄 M-CLUB 멤버십</t>
+  </si>
+  <si>
+    <t>메디큐브 에이지알 거치대</t>
+  </si>
+  <si>
+    <t>에이지알 부스터 젤</t>
+  </si>
+  <si>
+    <t>레드 클리어 스팟 패치</t>
+  </si>
+  <si>
+    <t>카카오톡 오늘의 채널</t>
+  </si>
+  <si>
+    <t>카무카무 잡티 토너</t>
+  </si>
+  <si>
+    <t>메디큐브 화이트 쇼핑백</t>
+  </si>
+  <si>
+    <t>제로모공패드 미니</t>
+  </si>
+  <si>
+    <t>레드라인 스타터 세트</t>
+  </si>
+  <si>
+    <t>딥 비타C 크림 (기미관리)</t>
+  </si>
+  <si>
+    <t>[기미관리] 딥 비타 집중케어 2종 세트</t>
+  </si>
+  <si>
+    <t>[2+1] 레드 모이스처 리얼 선크림</t>
+  </si>
+  <si>
+    <t>트리플 에이 핸드워시</t>
+  </si>
+  <si>
+    <t>제로 모공 클렌징 워터</t>
+  </si>
+  <si>
+    <t>[사은품증정] 제로 모공 원데이 세럼</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 카밍 쿠션</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 카밍 쿠션 리필</t>
+  </si>
+  <si>
+    <t>소이시딜 샴푸 (탈모기능성_환불보장)</t>
+  </si>
+  <si>
+    <t>소이시딜 2in1 트리트먼트 (탈모기능성)</t>
+  </si>
+  <si>
+    <t>[test]7일미백앰플 / 딥 비타C 앰플</t>
+  </si>
+  <si>
+    <t>[test] 레드 아크네 바디워시</t>
+  </si>
+  <si>
+    <t>[대용량] 레드 썸머 케어 세트</t>
+  </si>
+  <si>
+    <t>[썸머기획] 레드 비치 타올</t>
+  </si>
+  <si>
+    <t>레드 모이스처 쿨링 선스틱</t>
+  </si>
+  <si>
+    <t>레드 클리어 시카 바디 스크럽</t>
+  </si>
+  <si>
+    <t>레드 클리어 시카 바디 미스트</t>
+  </si>
+  <si>
+    <t>소이시딜 폼 (탈모기능성)</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 슈퍼 시카 패드</t>
+  </si>
+  <si>
+    <t>[마스크 5매 증정] 슈퍼 시카 4종 세트</t>
+  </si>
+  <si>
+    <t>레드 클리어 시카 워시오프 바디 패드 (씻는 바디패드)</t>
+  </si>
+  <si>
+    <t>소이시딜 3종 세트 (샤워기 증정)</t>
+  </si>
+  <si>
+    <t>소이 프로틴 노워시 트리트먼트</t>
+  </si>
+  <si>
+    <t>더마 어린 콜라겐</t>
+  </si>
+  <si>
+    <t>바디라인 2종 SET</t>
+  </si>
+  <si>
+    <t>레드 센텔라 밤</t>
+  </si>
+  <si>
+    <t>트리플 딥 미백 세트 (3만원 추가할인)</t>
+  </si>
+  <si>
+    <t>딥 비타C 마스크</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 데일리 퀵 마스크</t>
+  </si>
+  <si>
+    <t>더마 프로 샤워기</t>
+  </si>
+  <si>
+    <t>인그로운 헤어 케어 세트</t>
+  </si>
+  <si>
+    <t>소이시딜 두피 괄사</t>
+  </si>
+  <si>
+    <t>더마 프로 샤워기 필터 모음</t>
+  </si>
+  <si>
+    <t>딥 펩타이드 래디언스 마스크</t>
+  </si>
+  <si>
+    <t>[2+1] 소이시딜 비오틴 이뮨</t>
+  </si>
+  <si>
+    <t>멀티밤 파우치 세트 (가을한정)</t>
+  </si>
+  <si>
+    <t>레드 카밍 클레이 마스크 (칼라민 머드팩)</t>
+  </si>
+  <si>
+    <t>더마 우레아 아토팟 패치</t>
+  </si>
+  <si>
+    <t>레드 스킨 판토텐산</t>
+  </si>
+  <si>
+    <t>실리콘 마스크 듀얼 브러쉬</t>
+  </si>
+  <si>
+    <t>제로 블랙헤드 왁스킷</t>
+  </si>
+  <si>
+    <t>[유나 구독자 프로모션]메디큐브 에이지알 (EMS 탄력관리)</t>
+  </si>
+  <si>
+    <t>레드 비타 시카 파우더</t>
+  </si>
+  <si>
+    <t>에이지알 ATS 에어샷</t>
+  </si>
+  <si>
+    <t>더마 우레아 9.5 풋크림</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 콜라겐 나이트 랩핑 마스크 (11/2 순차출고)</t>
+  </si>
+  <si>
+    <t>에이지알 유쎄라 딥 샷</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 레드 아크네 석시닉애씨드 필링세럼</t>
+  </si>
+  <si>
+    <t>김희선 동안 에스테틱 2종</t>
+  </si>
+  <si>
+    <t>에이지알 클리닉 3종</t>
+  </si>
+  <si>
+    <t>콜라겐 탄력 케어 세트</t>
+  </si>
+  <si>
+    <t>에이지알 부스터 마스크</t>
+  </si>
+  <si>
+    <t>모공X진정 세트</t>
+  </si>
+  <si>
+    <t>레드 쉐이브 앤 폼 클렌저</t>
+  </si>
+  <si>
+    <t>딥 비타C 패치</t>
+  </si>
+  <si>
+    <t>마일드 클렌징 해면</t>
+  </si>
+  <si>
+    <t>[1+1] 더마 어린 콜라겐</t>
+  </si>
+  <si>
+    <t>[1+1] 액티브 멀티비타민 리퀴드 (액상종합비타민)</t>
+  </si>
+  <si>
+    <t>[단 3일]에이지알 X 김희선 특별 이벤트</t>
+  </si>
+  <si>
+    <t>모공X필링 세트</t>
+  </si>
+  <si>
+    <t>메디큐브 인텐시브 엠디 크림</t>
+  </si>
+  <si>
+    <t>에이지알 안티에이징 2종</t>
+  </si>
+  <si>
+    <t>소이시딜 2종 세트 (괄사증정/탈모기능성)</t>
+  </si>
+  <si>
+    <t>정기결제_테스트_상품</t>
+  </si>
+  <si>
+    <t>딥 콜라겐 퍼밍 선크림</t>
+  </si>
+  <si>
+    <t>카무카무 비타 잡티 2종 세트</t>
+  </si>
+  <si>
+    <t>[프리미엄 M-CLUB 멤버십]</t>
+  </si>
+  <si>
+    <t>에이지알 스페셜 기프트 세트</t>
+  </si>
+  <si>
+    <t>소이시딜 씨솔트 두피 스케일링</t>
+  </si>
+  <si>
+    <t>[사은품증정] 제로 모공 원데이 크림</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 딥 콜라겐 글로우 버블 세럼 (11/2 순차출고)</t>
+  </si>
+  <si>
+    <t>락토 케어 이너 앰플</t>
+  </si>
+  <si>
+    <t>소이시딜 스타터 3종 세트 (사은품증정)</t>
+  </si>
+  <si>
+    <t>모공 클리닉 3종 세트</t>
+  </si>
+  <si>
+    <t>에이지알 VIP 클리닉 4종</t>
+  </si>
+  <si>
+    <t>에이지알 물광테라피 2종</t>
+  </si>
+  <si>
+    <t>에이지알 부스터 힐러</t>
+  </si>
+  <si>
+    <t>레드 파운데이션 세럼 글로우</t>
+  </si>
+  <si>
+    <t>에이지알 플러스 젤</t>
+  </si>
+  <si>
+    <t>에이지알 페이셜 마스크</t>
+  </si>
+  <si>
+    <t>제로 모공 원데이 스페셜 세트</t>
+  </si>
+  <si>
+    <t>소이시딜 탈모집중세트 (미니 세트 증정)</t>
+  </si>
+  <si>
+    <t>제로 모공 쿨링 마스크</t>
+  </si>
+  <si>
+    <t>[2+1] 딥 비타C 패드</t>
+  </si>
+  <si>
+    <t>딥 비타 기초케어 2종 세트</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 컬러 코렉팅 크림</t>
+  </si>
+  <si>
+    <t>메디큐브 유쎄라 딥 샷 충전 크래들</t>
+  </si>
+  <si>
+    <t>슈퍼 시카 수분 진정 세트</t>
+  </si>
+  <si>
+    <t>광채 부스팅 3종 세트</t>
+  </si>
+  <si>
+    <t>딥 멜라 이레이징 정(기미앰플 1병 증정)</t>
+  </si>
+  <si>
+    <t>[medicube]체험 서비스_물광테라피 2종</t>
+  </si>
+  <si>
+    <t>[medicube]체험 서비스_동안 에스테틱 2종</t>
+  </si>
+  <si>
+    <t>[럭키박스] 바디 &amp; 헤어 럭키 BOX</t>
+  </si>
+  <si>
+    <t>[신규 50만 플친 이벤트] 레드 폼 클렌저 120ml</t>
+  </si>
+  <si>
+    <t>카카오톡 플러스친구 50만 달성 감사제</t>
+  </si>
+  <si>
+    <t>[50만플친할인] 콜라겐 마스크 10매</t>
+  </si>
+  <si>
     <t>https://www.andar.co.kr</t>
   </si>
   <si>
@@ -541,6 +987,807 @@
   </si>
   <si>
     <t>에어쿨링 스퀘어넥 탱크탑</t>
+  </si>
+  <si>
+    <t>https://m.mainbooth.co.kr/</t>
+  </si>
+  <si>
+    <t>Rafflesia Muffler(BLACK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44,000원 </t>
+  </si>
+  <si>
+    <t>Rafflesia Muffler(GREEN)</t>
+  </si>
+  <si>
+    <t>Pacific Muffler(NAVY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52,000원 </t>
+  </si>
+  <si>
+    <t>Pacific Muffler(ORANGE)</t>
+  </si>
+  <si>
+    <t>[11/17 예약배송]Nomad Suede Crop Jumper(KHAKI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240,000원 </t>
+  </si>
+  <si>
+    <t>Nomad Suede Crop Jumper(YELLOW)</t>
+  </si>
+  <si>
+    <t>[11/11 예약배송]Hillside Fleece Zip-Up(BROWN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200,000원 </t>
+  </si>
+  <si>
+    <t>[11/11 예약배송]Hillside Fleece Zip-Up(CREAM)</t>
+  </si>
+  <si>
+    <t>Basic Fleece Zip-Up(CHARCOAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180,000원 </t>
+  </si>
+  <si>
+    <t>Basic Fleece Zip-Up(IVORY)</t>
+  </si>
+  <si>
+    <t>Puffin Duck Down Jacket(DEEPDIVE BLUE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320,000원 </t>
+  </si>
+  <si>
+    <t>Puffin Duck Down Jacket(MAPLE ORANGE)</t>
+  </si>
+  <si>
+    <t>Duck Down Corduroy Snow Parka(KHAKI)</t>
+  </si>
+  <si>
+    <t>Duck Down Corduroy Snow Parka(PINK)</t>
+  </si>
+  <si>
+    <t>Duck Down Corduroy Snow Parka(BEIGE)</t>
+  </si>
+  <si>
+    <t>Oversized Half Duffle Coat(BLACK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280,000원 </t>
+  </si>
+  <si>
+    <t>Oversized Half Duffle Coat(LIGHT GRAY)</t>
+  </si>
+  <si>
+    <t>Oversized Half Duffle Coat(IVORY)</t>
+  </si>
+  <si>
+    <t>Oversized Half Duffle Coat(OLIVE GREEN)</t>
+  </si>
+  <si>
+    <t>[11/25 예약배송]Oversized Duffle Coat(ASH BLUE)</t>
+  </si>
+  <si>
+    <t>[11/14 예약배송]Oversized Duffle Coat(PINK)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송]Oversized Duffle Coat(EGG SHELL)</t>
+  </si>
+  <si>
+    <t>[11/14 예약배송]Oversized Duffle Coat(IVORY)</t>
+  </si>
+  <si>
+    <t>Oversized Duffle Coat(GRAY)</t>
+  </si>
+  <si>
+    <t>Oversized Duffle Coat(BLACK)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 스타 비니(IVORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,000원 </t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 스타 비니(BLACK)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 볼 캡(NAVY)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 볼 캡(WHITE)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 플리스 머플러(DEEP PURPLE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35,000원 </t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 플리스 머플러(KHAKI)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 팬츠(IVORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69,000원 </t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 팬츠(BLACK)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 맨투맨(IVORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89,000원 </t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 맨투맨(BLACK)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 익스플로러 니트(BLACK)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 익스플로러 니트(LIGHT PURPLE)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 나일론 숏 더플코트(SILVER)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129,000원 </t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 나일론 숏 더플코트(BLACK)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 리버시블 플리스 점퍼(KHAKI)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 리버시블 플리스 점퍼(DEEP PURPLE)</t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 스타디움 자켓(FOREST GREEN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169,000원 </t>
+  </si>
+  <si>
+    <t>[MAINBOOTH X FCMM] 레인저스 스타디움 자켓(NAVY)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 숏 패딩 점퍼(IVORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149,000원 </t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 숏 패딩 점퍼(LIGHT PURPLE)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 숏 패딩 점퍼(SKY BLUE)</t>
+  </si>
+  <si>
+    <t>[11/04 예약배송][MAINBOOTH X FCMM] 레인저스 숏 패딩 점퍼(BLACK)</t>
+  </si>
+  <si>
+    <t>https://m.ycloset.com/</t>
+  </si>
+  <si>
+    <t>Owun linen essential shirt (8color)</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>Sencik open collar half kint (8color)</t>
+  </si>
+  <si>
+    <t>41000</t>
+  </si>
+  <si>
+    <t>Block pattern collar half knit (3color)</t>
+  </si>
+  <si>
+    <t>Taud two-tuck linen pants (6color)</t>
+  </si>
+  <si>
+    <t>36000</t>
+  </si>
+  <si>
+    <t>Batia semi overfit linen shirt (5color)</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>Wave striped collar knit (5color)</t>
+  </si>
+  <si>
+    <t>38000</t>
+  </si>
+  <si>
+    <t>Moling stripe collar knit (3color)</t>
+  </si>
+  <si>
+    <t>Bins one-tuck linen slacks (4color)</t>
+  </si>
+  <si>
+    <t>39000</t>
+  </si>
+  <si>
+    <t>Stitch Suede Slippers (BLACK/240) (세일/재고소진 마감)</t>
+  </si>
+  <si>
+    <t>22000</t>
+  </si>
+  <si>
+    <t>Elve mix collar half knit (3color)</t>
+  </si>
+  <si>
+    <t>43000</t>
+  </si>
+  <si>
+    <t>Wemis coloring zipper half knit (4color)</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>Dimon striped collar knit (3color)</t>
+  </si>
+  <si>
+    <t>Norum striped zipper half knit (4color)</t>
+  </si>
+  <si>
+    <t>Poche half zip-up knit (6color)</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>Los Angeles printing half tee(5color)</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>Wiz stripe half collar knit (2color)</t>
+  </si>
+  <si>
+    <t>54000</t>
+  </si>
+  <si>
+    <t>Bone collar half knit (8color)</t>
+  </si>
+  <si>
+    <t>Comfy semi wide pants (2color)</t>
+  </si>
+  <si>
+    <t>Texture collar half knit (2color)</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>Moty v-neck half cardigan (5color)</t>
+  </si>
+  <si>
+    <t>Unit lettering half tee (3color)</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>Creek lettering half tee (4color)</t>
+  </si>
+  <si>
+    <t>Come linen banding pants (4color)</t>
+  </si>
+  <si>
+    <t>Label overfit cotton half shirt (4color)</t>
+  </si>
+  <si>
+    <t>Bero v-neck half tee (3color)</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>Aede v-neck half tee (4color)</t>
+  </si>
+  <si>
+    <t>Kusen boucle v-neck knit (4color)</t>
+  </si>
+  <si>
+    <t>Matisse printing half tee (2color)</t>
+  </si>
+  <si>
+    <t>24000</t>
+  </si>
+  <si>
+    <t>Vange half cotton shirt (5color)</t>
+  </si>
+  <si>
+    <t>29000</t>
+  </si>
+  <si>
+    <t>Port two-tuck wide pants (3color)</t>
+  </si>
+  <si>
+    <t>Via open collar t-shirt (4color)</t>
+  </si>
+  <si>
+    <t>Magasin round long-sleeve tee(4color)</t>
+  </si>
+  <si>
+    <t>Dia two-way coating jacket (2color)</t>
+  </si>
+  <si>
+    <t>49000</t>
+  </si>
+  <si>
+    <t>Ralph semi-over shirt (3color)</t>
+  </si>
+  <si>
+    <t>Lemo wool like knit (2type) (8color)</t>
+  </si>
+  <si>
+    <t>Bevan pocket field jacket (3color)</t>
+  </si>
+  <si>
+    <t>Ispa ponte long-sleeved (17color)</t>
+  </si>
+  <si>
+    <t>Aide-tol lettering long-sleeved (4color)</t>
+  </si>
+  <si>
+    <t>Dioten natural black suit (1color)</t>
+  </si>
+  <si>
+    <t>102000</t>
+  </si>
+  <si>
+    <t>Dioten natural mocha suit (1color)</t>
+  </si>
+  <si>
+    <t>Dioten natural grayish blue suit (1color)</t>
+  </si>
+  <si>
+    <t>Botack pintuck wide slacks (3color)</t>
+  </si>
+  <si>
+    <t>46000</t>
+  </si>
+  <si>
+    <t>Slob wide banding denim (2color)</t>
+  </si>
+  <si>
+    <t>Birap overfit cotton shirt (10color)</t>
+  </si>
+  <si>
+    <t>Calleti minimal two-way jacket (2color)</t>
+  </si>
+  <si>
+    <t>51000</t>
+  </si>
+  <si>
+    <t>1+1 Heido soft round tee (10color)</t>
+  </si>
+  <si>
+    <t>Reove button leather jacket (2color)</t>
+  </si>
+  <si>
+    <t>92000</t>
+  </si>
+  <si>
+    <t>University round sweatshirt (3color)</t>
+  </si>
+  <si>
+    <t>Wherey wide cotton pants (3color)</t>
+  </si>
+  <si>
+    <t>Ribun half collar knit (4color)</t>
+  </si>
+  <si>
+    <t>Reivid high neck zip-up knit (4color)</t>
+  </si>
+  <si>
+    <t>Oscar round knit (6color)</t>
+  </si>
+  <si>
+    <t>Gnal henry neck button knit (5color)</t>
+  </si>
+  <si>
+    <t>Vendish high neck jacket (2color)</t>
+  </si>
+  <si>
+    <t>109000</t>
+  </si>
+  <si>
+    <t>Diero soft semi over shirt (4color)</t>
+  </si>
+  <si>
+    <t>Kassy golgi collar cardigan (4color)</t>
+  </si>
+  <si>
+    <t>Newport round MTM (4color)</t>
+  </si>
+  <si>
+    <t>Perin open v-neck shirt (4color)</t>
+  </si>
+  <si>
+    <t>Coi varsity  jacket(2color)</t>
+  </si>
+  <si>
+    <t>56000</t>
+  </si>
+  <si>
+    <t>Saints leather JK (2color)</t>
+  </si>
+  <si>
+    <t>Poz stripe hidden shirt (3color)</t>
+  </si>
+  <si>
+    <t>Sunday printed hoodie (4color)</t>
+  </si>
+  <si>
+    <t>59000</t>
+  </si>
+  <si>
+    <t>Lecno half zip-up knit (9color)</t>
+  </si>
+  <si>
+    <t>Elon waffle knit zip-up (6color)</t>
+  </si>
+  <si>
+    <t>Zoget half banding pants (4color)</t>
+  </si>
+  <si>
+    <t>44000</t>
+  </si>
+  <si>
+    <t>Fall cashmere knit zip-up (6color)</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>Stockholm overfit cotton hoodie (4color)</t>
+  </si>
+  <si>
+    <t>Diero nell tweed cardigan (2color)</t>
+  </si>
+  <si>
+    <t>Moens highneck stripe knit (3color)</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>Loible two-pocket jacket (3color)</t>
+  </si>
+  <si>
+    <t>Ainoa minimal overfit shirt (6color)</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>Lizun vintage wide denim (5color)</t>
+  </si>
+  <si>
+    <t>Sandiego round sweatshirt (2color)</t>
+  </si>
+  <si>
+    <t>Noin stripe half open knit (2color)</t>
+  </si>
+  <si>
+    <t>Deizy stripe twisted knit (3color)</t>
+  </si>
+  <si>
+    <t>Acoustic round sweatshirt (4color)</t>
+  </si>
+  <si>
+    <t>Kelltern stripe collar cardigan (4color)</t>
+  </si>
+  <si>
+    <t>Boden hidden button shirt (3color)</t>
+  </si>
+  <si>
+    <t>Usa premium slit long-sleeved (12color)</t>
+  </si>
+  <si>
+    <t>27000</t>
+  </si>
+  <si>
+    <t>Leysen semi wide slacks (3color)</t>
+  </si>
+  <si>
+    <t>Moen cable button cardigan (5color)</t>
+  </si>
+  <si>
+    <t>Fure zipper collar knit (5color)</t>
+  </si>
+  <si>
+    <t>Sote high neck zip-up (4color)</t>
+  </si>
+  <si>
+    <t>Carryce two-pocket shirt (3color)</t>
+  </si>
+  <si>
+    <t>Laid v-neck knit cardigan (3color)</t>
+  </si>
+  <si>
+    <t>Senti circle lettering mtm (4color)</t>
+  </si>
+  <si>
+    <t>26000</t>
+  </si>
+  <si>
+    <t>Mentey soft knit zip-up (3color)</t>
+  </si>
+  <si>
+    <t>Vane half banding slckas (6color)</t>
+  </si>
+  <si>
+    <t>Kling collar knit half zip-up (3color)</t>
+  </si>
+  <si>
+    <t>Muni waffle round knit (5color)</t>
+  </si>
+  <si>
+    <t>Rent check single blazer (1color)</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>Cort land string mtm (2color)</t>
+  </si>
+  <si>
+    <t>1+1 Moni golgi round knit (9color)</t>
+  </si>
+  <si>
+    <t>Muscle round long-sleeved (12color)</t>
+  </si>
+  <si>
+    <t>Sunshine button collar knit (5color)</t>
+  </si>
+  <si>
+    <t>Molly round long-sleeved (6color)</t>
+  </si>
+  <si>
+    <t>Sodem cable stripe knit (6color)</t>
+  </si>
+  <si>
+    <t>Ancer wind breaker jacket (4color)</t>
+  </si>
+  <si>
+    <t>66000</t>
+  </si>
+  <si>
+    <t>Potin cash viscose half zip-up (7color)</t>
+  </si>
+  <si>
+    <t>Resian crop knit cardigan (4color)</t>
+  </si>
+  <si>
+    <t>Bereon round knit zip-up (5color)</t>
+  </si>
+  <si>
+    <t>Reten straight line denim (1color)</t>
+  </si>
+  <si>
+    <t>Bato string shirt (3color)</t>
+  </si>
+  <si>
+    <t>Beo mohair coloring jacket (2color)</t>
+  </si>
+  <si>
+    <t>Moen cable half zip-up knit (4color)</t>
+  </si>
+  <si>
+    <t>Pionu knit zip-up (3color)</t>
+  </si>
+  <si>
+    <t>Broad button collar knit (4color)</t>
+  </si>
+  <si>
+    <t>Smore two-tuck wide slacks (3color)</t>
+  </si>
+  <si>
+    <t>Roti flip-flop (WHITE/260) (세일/재고소진 마감)</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>Ravet denim tracker(DARK BLUE/L) (세일/재고소진 마감)</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>Kebon coloring cardigan (4color)</t>
+  </si>
+  <si>
+    <t>Mokin round button cardigan (4color)</t>
+  </si>
+  <si>
+    <t>Barten two-tuck belted slacks(6color)</t>
+  </si>
+  <si>
+    <t>Cemin standard paper shirt (15color)</t>
+  </si>
+  <si>
+    <t>Medy coloring button cardigan (2color)</t>
+  </si>
+  <si>
+    <t>Tutto half zip-up knit (10color)</t>
+  </si>
+  <si>
+    <t>Solve cash v-neck cardigan (14color)</t>
+  </si>
+  <si>
+    <t>Jaden cash full zip-up knit (5color)</t>
+  </si>
+  <si>
+    <t>Pug oxford shirt (WHITE/M)(세일/재고소진 마감)</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>Muse tweed short jacket (3color)</t>
+  </si>
+  <si>
+    <t>79900</t>
+  </si>
+  <si>
+    <t>Andy tweed jacket (2color)</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>Milky over short padding (4color)</t>
+  </si>
+  <si>
+    <t>Code 3Button Blazer (3color)</t>
+  </si>
+  <si>
+    <t>75000</t>
+  </si>
+  <si>
+    <t>Clark straight white pants (1color)</t>
+  </si>
+  <si>
+    <t>Veneta check jacket (2color)</t>
+  </si>
+  <si>
+    <t>98000</t>
+  </si>
+  <si>
+    <t>Dave wool pocket jacket (3color)</t>
+  </si>
+  <si>
+    <t>80000</t>
+  </si>
+  <si>
+    <t>Hagen collar knit zip-up (4color)</t>
+  </si>
+  <si>
+    <t>Jay hound check tweed jacket (3color)</t>
+  </si>
+  <si>
+    <t>87000</t>
+  </si>
+  <si>
+    <t>Shell Stripe round knit (1color)</t>
+  </si>
+  <si>
+    <t>cable bay cardigan (8color)</t>
+  </si>
+  <si>
+    <t>Paris round knit (5color)</t>
+  </si>
+  <si>
+    <t>Pium kara cardigan (5color)</t>
+  </si>
+  <si>
+    <t>Hazzi cache cardigan (3color)</t>
+  </si>
+  <si>
+    <t>Pino wide slacks (4color)</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>Catal ankle boots (2color)</t>
+  </si>
+  <si>
+    <t>Double Clipper shoes (BLACK/255) (세일/재고소진 마감)</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>Collis wool blazer jacket (CHARCOAL/M)(sale/재고 소진 시 마감)</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>silicon fake socks (BEIGE)(sale/재고 소진 시 마감)</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Saint stripe kara cardigan (3color)</t>
+  </si>
+  <si>
+    <t>Soft cash half neck (7color)</t>
+  </si>
+  <si>
+    <t>Tartan knit zip-up (1color)</t>
+  </si>
+  <si>
+    <t>Hi cash round knit (5color)</t>
+  </si>
+  <si>
+    <t>Code high neck zip-up knit (5color)</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>Paris semi wide slacks (4color)</t>
+  </si>
+  <si>
+    <t>Ninez straight denim (1color)</t>
+  </si>
+  <si>
+    <t>Care half zip-up knit (4color)</t>
+  </si>
+  <si>
+    <t>Pure cache zip-up knit (5color)</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Orion multi pocket padding (2color)</t>
+  </si>
+  <si>
+    <t>63000</t>
+  </si>
+  <si>
+    <t>French tweed wool jacket (2color)</t>
+  </si>
+  <si>
+    <t>99000</t>
+  </si>
+  <si>
+    <t>Rope high neck knit zip-up (4color)</t>
+  </si>
+  <si>
+    <t>69000</t>
+  </si>
+  <si>
+    <t>Cable wool knit (4color)</t>
+  </si>
+  <si>
+    <t>Lucky soft v knit (6color)</t>
+  </si>
+  <si>
+    <t>Bonnid dia kara cardigan (3color)</t>
   </si>
 </sst>
 </file>
@@ -889,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -899,8 +2146,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391FEC4-EACB-459C-96DD-095D823EAB14}">
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1170,15 +2417,1280 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="H63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="H73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>24</v>
+      </c>
+      <c r="H86" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" t="s">
+        <v>29</v>
+      </c>
+      <c r="H91" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>21</v>
+      </c>
+      <c r="H106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="H109" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="H110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="H114" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="H115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>23</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>24</v>
+      </c>
+      <c r="H132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B2E962-586A-4F04-B9E0-3EEBBB553A4D}">
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1393,18 +3905,1646 @@
         <v>36</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="H37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>75</v>
+      </c>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="H55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>93</v>
+      </c>
+      <c r="H59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>95</v>
+      </c>
+      <c r="H61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="H67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>109</v>
+      </c>
+      <c r="H75" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="H79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>114</v>
+      </c>
+      <c r="H80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+      <c r="H83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>118</v>
+      </c>
+      <c r="H84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="H86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+      <c r="H87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>122</v>
+      </c>
+      <c r="H88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>123</v>
+      </c>
+      <c r="H89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>124</v>
+      </c>
+      <c r="H90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>125</v>
+      </c>
+      <c r="H91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>126</v>
+      </c>
+      <c r="H92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>127</v>
+      </c>
+      <c r="H93" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>128</v>
+      </c>
+      <c r="H94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>129</v>
+      </c>
+      <c r="H95" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>130</v>
+      </c>
+      <c r="H96" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>132</v>
+      </c>
+      <c r="H98" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>133</v>
+      </c>
+      <c r="H99" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>134</v>
+      </c>
+      <c r="H100" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>135</v>
+      </c>
+      <c r="H101" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>136</v>
+      </c>
+      <c r="H102" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>137</v>
+      </c>
+      <c r="H103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+      <c r="H104" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>139</v>
+      </c>
+      <c r="H105" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>140</v>
+      </c>
+      <c r="H106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="H107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>142</v>
+      </c>
+      <c r="H108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>143</v>
+      </c>
+      <c r="H109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>144</v>
+      </c>
+      <c r="H110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>145</v>
+      </c>
+      <c r="H111" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="H112" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" t="s">
+        <v>147</v>
+      </c>
+      <c r="H113" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" t="s">
+        <v>148</v>
+      </c>
+      <c r="H114" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="H115" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>150</v>
+      </c>
+      <c r="H116" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>152</v>
+      </c>
+      <c r="H118" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>153</v>
+      </c>
+      <c r="H119" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>154</v>
+      </c>
+      <c r="H120" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>155</v>
+      </c>
+      <c r="H121" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>156</v>
+      </c>
+      <c r="H122" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>157</v>
+      </c>
+      <c r="H123" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>158</v>
+      </c>
+      <c r="H124" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>159</v>
+      </c>
+      <c r="H125" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>160</v>
+      </c>
+      <c r="H126" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>161</v>
+      </c>
+      <c r="H127" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>162</v>
+      </c>
+      <c r="H128" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>163</v>
+      </c>
+      <c r="H129" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>164</v>
+      </c>
+      <c r="H130" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>165</v>
+      </c>
+      <c r="H131" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
+      </c>
+      <c r="H132" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>167</v>
+      </c>
+      <c r="H133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
+      <c r="H134" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+      <c r="H135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>170</v>
+      </c>
+      <c r="H136" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>171</v>
+      </c>
+      <c r="H137" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>172</v>
+      </c>
+      <c r="H138" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>173</v>
+      </c>
+      <c r="H139" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>174</v>
+      </c>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>175</v>
+      </c>
+      <c r="H141" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>176</v>
+      </c>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>177</v>
+      </c>
+      <c r="H143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>178</v>
+      </c>
+      <c r="H144" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>179</v>
+      </c>
+      <c r="H145" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>180</v>
+      </c>
+      <c r="H146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>181</v>
+      </c>
+      <c r="H147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>182</v>
+      </c>
+      <c r="H148" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>183</v>
+      </c>
+      <c r="H149" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>184</v>
+      </c>
+      <c r="H150" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>185</v>
+      </c>
+      <c r="H151" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>186</v>
+      </c>
+      <c r="H152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>187</v>
+      </c>
+      <c r="H153" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>188</v>
+      </c>
+      <c r="H154" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>189</v>
+      </c>
+      <c r="H155" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>190</v>
+      </c>
+      <c r="H156" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>191</v>
+      </c>
+      <c r="H157" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>192</v>
+      </c>
+      <c r="H158" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>193</v>
+      </c>
+      <c r="H159" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>194</v>
+      </c>
+      <c r="H160" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>195</v>
+      </c>
+      <c r="H161" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>196</v>
+      </c>
+      <c r="H162" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>197</v>
+      </c>
+      <c r="H163" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>198</v>
+      </c>
+      <c r="H164" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>199</v>
+      </c>
+      <c r="H165" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>200</v>
+      </c>
+      <c r="H166" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>201</v>
+      </c>
+      <c r="H167" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749C57E8-D77D-4C8D-AD40-3C643FCB6344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5E6F3C-8C76-4806-8C35-740E2D49816E}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H87"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1422,953 +5562,3202 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="H17" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>239</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>241</v>
       </c>
       <c r="H27" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="H29" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>245</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="H31" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="H33" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="H36" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="H41" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>263</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>264</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>266</v>
       </c>
       <c r="H45" t="s">
-        <v>119</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c r="H46" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>269</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>274</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>275</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="H54" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>277</v>
       </c>
       <c r="H55" t="s">
-        <v>130</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="H56" t="s">
-        <v>132</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>283</v>
       </c>
       <c r="H58" t="s">
-        <v>136</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="H59" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>286</v>
       </c>
       <c r="H60" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="H61" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>289</v>
       </c>
       <c r="H62" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>142</v>
+        <v>290</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="H64" t="s">
-        <v>145</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>294</v>
       </c>
       <c r="H65" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="H66" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="H67" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="H68" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>298</v>
       </c>
       <c r="H69" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="H70" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="H71" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>287</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D73" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="H73" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="H74" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D76" t="s">
-        <v>156</v>
+        <v>304</v>
       </c>
       <c r="H76" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D77" t="s">
-        <v>157</v>
+        <v>305</v>
       </c>
       <c r="H77" t="s">
-        <v>114</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
       <c r="H78" t="s">
-        <v>136</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>307</v>
       </c>
       <c r="H79" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>308</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
-        <v>161</v>
+        <v>309</v>
       </c>
       <c r="H81" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>162</v>
+        <v>310</v>
       </c>
       <c r="H82" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>312</v>
       </c>
       <c r="H84" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D85" t="s">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="H85" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>166</v>
+        <v>314</v>
       </c>
       <c r="H86" t="s">
-        <v>140</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="H87" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2571CF3-B188-4A23-8939-521A2DC99109}">
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" t="s">
+        <v>328</v>
+      </c>
+      <c r="H9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" t="s">
+        <v>332</v>
+      </c>
+      <c r="H12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" t="s">
+        <v>334</v>
+      </c>
+      <c r="H13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="D15" t="s">
+        <v>336</v>
+      </c>
+      <c r="H15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="D16" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" t="s">
+        <v>340</v>
+      </c>
+      <c r="H18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" t="s">
+        <v>346</v>
+      </c>
+      <c r="H24" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D26" t="s">
+        <v>348</v>
+      </c>
+      <c r="H26" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>316</v>
+      </c>
+      <c r="D29" t="s">
+        <v>352</v>
+      </c>
+      <c r="H29" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>316</v>
+      </c>
+      <c r="D30" t="s">
+        <v>353</v>
+      </c>
+      <c r="H30" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="D31" t="s">
+        <v>354</v>
+      </c>
+      <c r="H31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" t="s">
+        <v>356</v>
+      </c>
+      <c r="H32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>316</v>
+      </c>
+      <c r="D34" t="s">
+        <v>359</v>
+      </c>
+      <c r="H34" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>316</v>
+      </c>
+      <c r="D35" t="s">
+        <v>360</v>
+      </c>
+      <c r="H35" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>316</v>
+      </c>
+      <c r="D36" t="s">
+        <v>362</v>
+      </c>
+      <c r="H36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>316</v>
+      </c>
+      <c r="D37" t="s">
+        <v>363</v>
+      </c>
+      <c r="H37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" t="s">
+        <v>364</v>
+      </c>
+      <c r="H38" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>316</v>
+      </c>
+      <c r="D39" t="s">
+        <v>365</v>
+      </c>
+      <c r="H39" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>316</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="H40" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>316</v>
+      </c>
+      <c r="D41" t="s">
+        <v>368</v>
+      </c>
+      <c r="H41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" t="s">
+        <v>369</v>
+      </c>
+      <c r="H42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>316</v>
+      </c>
+      <c r="D43" t="s">
+        <v>370</v>
+      </c>
+      <c r="H43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>316</v>
+      </c>
+      <c r="D44" t="s">
+        <v>372</v>
+      </c>
+      <c r="H44" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>316</v>
+      </c>
+      <c r="D45" t="s">
+        <v>373</v>
+      </c>
+      <c r="H45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>316</v>
+      </c>
+      <c r="D47" t="s">
+        <v>376</v>
+      </c>
+      <c r="H47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>377</v>
+      </c>
+      <c r="H48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195ED18D-F1A1-453D-98DE-FB88F73B15C5}">
+  <dimension ref="A1:H154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" t="s">
+        <v>381</v>
+      </c>
+      <c r="H3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" t="s">
+        <v>386</v>
+      </c>
+      <c r="H6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>378</v>
+      </c>
+      <c r="D9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>378</v>
+      </c>
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D12" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
+      <c r="H14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D16" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D17" t="s">
+        <v>405</v>
+      </c>
+      <c r="H17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" t="s">
+        <v>407</v>
+      </c>
+      <c r="H18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>378</v>
+      </c>
+      <c r="D19" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+      <c r="H20" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D22" t="s">
+        <v>412</v>
+      </c>
+      <c r="H22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>378</v>
+      </c>
+      <c r="D23" t="s">
+        <v>414</v>
+      </c>
+      <c r="H23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" t="s">
+        <v>415</v>
+      </c>
+      <c r="H24" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" t="s">
+        <v>416</v>
+      </c>
+      <c r="H25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" t="s">
+        <v>417</v>
+      </c>
+      <c r="H26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D27" t="s">
+        <v>419</v>
+      </c>
+      <c r="H27" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" t="s">
+        <v>421</v>
+      </c>
+      <c r="H29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D30" t="s">
+        <v>423</v>
+      </c>
+      <c r="H30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>378</v>
+      </c>
+      <c r="D31" t="s">
+        <v>425</v>
+      </c>
+      <c r="H31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" t="s">
+        <v>426</v>
+      </c>
+      <c r="H32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" t="s">
+        <v>427</v>
+      </c>
+      <c r="H33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" t="s">
+        <v>428</v>
+      </c>
+      <c r="H34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" t="s">
+        <v>430</v>
+      </c>
+      <c r="H35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>378</v>
+      </c>
+      <c r="D36" t="s">
+        <v>431</v>
+      </c>
+      <c r="H36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" t="s">
+        <v>432</v>
+      </c>
+      <c r="H37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" t="s">
+        <v>433</v>
+      </c>
+      <c r="H38" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" t="s">
+        <v>437</v>
+      </c>
+      <c r="H41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" t="s">
+        <v>438</v>
+      </c>
+      <c r="H42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>378</v>
+      </c>
+      <c r="D43" t="s">
+        <v>439</v>
+      </c>
+      <c r="H43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="D44" t="s">
+        <v>441</v>
+      </c>
+      <c r="H44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>378</v>
+      </c>
+      <c r="D45" t="s">
+        <v>442</v>
+      </c>
+      <c r="H45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>378</v>
+      </c>
+      <c r="D46" t="s">
+        <v>443</v>
+      </c>
+      <c r="H46" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" t="s">
+        <v>445</v>
+      </c>
+      <c r="H47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>378</v>
+      </c>
+      <c r="D48" t="s">
+        <v>446</v>
+      </c>
+      <c r="H48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" t="s">
+        <v>448</v>
+      </c>
+      <c r="H49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>378</v>
+      </c>
+      <c r="D50" t="s">
+        <v>449</v>
+      </c>
+      <c r="H50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>378</v>
+      </c>
+      <c r="D51" t="s">
+        <v>450</v>
+      </c>
+      <c r="H51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52" t="s">
+        <v>451</v>
+      </c>
+      <c r="H52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" t="s">
+        <v>452</v>
+      </c>
+      <c r="H53" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>378</v>
+      </c>
+      <c r="D54" t="s">
+        <v>453</v>
+      </c>
+      <c r="H54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="D55" t="s">
+        <v>454</v>
+      </c>
+      <c r="H55" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>378</v>
+      </c>
+      <c r="D56" t="s">
+        <v>456</v>
+      </c>
+      <c r="H56" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>378</v>
+      </c>
+      <c r="D57" t="s">
+        <v>457</v>
+      </c>
+      <c r="H57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>378</v>
+      </c>
+      <c r="D58" t="s">
+        <v>458</v>
+      </c>
+      <c r="H58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>378</v>
+      </c>
+      <c r="D59" t="s">
+        <v>459</v>
+      </c>
+      <c r="H59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="D60" t="s">
+        <v>460</v>
+      </c>
+      <c r="H60" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" t="s">
+        <v>462</v>
+      </c>
+      <c r="H61" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>378</v>
+      </c>
+      <c r="D62" t="s">
+        <v>463</v>
+      </c>
+      <c r="H62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>378</v>
+      </c>
+      <c r="D63" t="s">
+        <v>464</v>
+      </c>
+      <c r="H63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="D64" t="s">
+        <v>466</v>
+      </c>
+      <c r="H64" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="D65" t="s">
+        <v>467</v>
+      </c>
+      <c r="H65" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>378</v>
+      </c>
+      <c r="D66" t="s">
+        <v>468</v>
+      </c>
+      <c r="H66" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" t="s">
+        <v>470</v>
+      </c>
+      <c r="H67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>378</v>
+      </c>
+      <c r="D68" t="s">
+        <v>472</v>
+      </c>
+      <c r="H68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" t="s">
+        <v>473</v>
+      </c>
+      <c r="H69" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>378</v>
+      </c>
+      <c r="D70" t="s">
+        <v>474</v>
+      </c>
+      <c r="H70" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>378</v>
+      </c>
+      <c r="D71" t="s">
+        <v>476</v>
+      </c>
+      <c r="H71" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>378</v>
+      </c>
+      <c r="D72" t="s">
+        <v>477</v>
+      </c>
+      <c r="H72" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" t="s">
+        <v>479</v>
+      </c>
+      <c r="H73" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>378</v>
+      </c>
+      <c r="D74" t="s">
+        <v>480</v>
+      </c>
+      <c r="H74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>378</v>
+      </c>
+      <c r="D75" t="s">
+        <v>481</v>
+      </c>
+      <c r="H75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D76" t="s">
+        <v>482</v>
+      </c>
+      <c r="H76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>378</v>
+      </c>
+      <c r="D77" t="s">
+        <v>483</v>
+      </c>
+      <c r="H77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>378</v>
+      </c>
+      <c r="D78" t="s">
+        <v>484</v>
+      </c>
+      <c r="H78" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>378</v>
+      </c>
+      <c r="D79" t="s">
+        <v>485</v>
+      </c>
+      <c r="H79" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>486</v>
+      </c>
+      <c r="H80" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>378</v>
+      </c>
+      <c r="D81" t="s">
+        <v>488</v>
+      </c>
+      <c r="H81" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>378</v>
+      </c>
+      <c r="D82" t="s">
+        <v>489</v>
+      </c>
+      <c r="H82" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" t="s">
+        <v>490</v>
+      </c>
+      <c r="H83" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" t="s">
+        <v>491</v>
+      </c>
+      <c r="H84" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="D85" t="s">
+        <v>492</v>
+      </c>
+      <c r="H85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" t="s">
+        <v>493</v>
+      </c>
+      <c r="H86" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>378</v>
+      </c>
+      <c r="D87" t="s">
+        <v>494</v>
+      </c>
+      <c r="H87" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" t="s">
+        <v>496</v>
+      </c>
+      <c r="H88" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>378</v>
+      </c>
+      <c r="D89" t="s">
+        <v>497</v>
+      </c>
+      <c r="H89" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>378</v>
+      </c>
+      <c r="D90" t="s">
+        <v>498</v>
+      </c>
+      <c r="H90" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" t="s">
+        <v>499</v>
+      </c>
+      <c r="H91" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>378</v>
+      </c>
+      <c r="D92" t="s">
+        <v>500</v>
+      </c>
+      <c r="H92" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+      <c r="D93" t="s">
+        <v>502</v>
+      </c>
+      <c r="H93" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>378</v>
+      </c>
+      <c r="D94" t="s">
+        <v>503</v>
+      </c>
+      <c r="H94" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>504</v>
+      </c>
+      <c r="H95" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>378</v>
+      </c>
+      <c r="D96" t="s">
+        <v>505</v>
+      </c>
+      <c r="H96" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>378</v>
+      </c>
+      <c r="D97" t="s">
+        <v>506</v>
+      </c>
+      <c r="H97" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" t="s">
+        <v>507</v>
+      </c>
+      <c r="H98" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" t="s">
+        <v>508</v>
+      </c>
+      <c r="H99" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" t="s">
+        <v>510</v>
+      </c>
+      <c r="H100" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>378</v>
+      </c>
+      <c r="D101" t="s">
+        <v>511</v>
+      </c>
+      <c r="H101" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>378</v>
+      </c>
+      <c r="D102" t="s">
+        <v>512</v>
+      </c>
+      <c r="H102" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>378</v>
+      </c>
+      <c r="D103" t="s">
+        <v>513</v>
+      </c>
+      <c r="H103" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>378</v>
+      </c>
+      <c r="D104" t="s">
+        <v>514</v>
+      </c>
+      <c r="H104" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>378</v>
+      </c>
+      <c r="D105" t="s">
+        <v>515</v>
+      </c>
+      <c r="H105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" t="s">
+        <v>516</v>
+      </c>
+      <c r="H106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>378</v>
+      </c>
+      <c r="D107" t="s">
+        <v>517</v>
+      </c>
+      <c r="H107" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>378</v>
+      </c>
+      <c r="D108" t="s">
+        <v>518</v>
+      </c>
+      <c r="H108" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109" t="s">
+        <v>519</v>
+      </c>
+      <c r="H109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" t="s">
+        <v>520</v>
+      </c>
+      <c r="H110" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>378</v>
+      </c>
+      <c r="D111" t="s">
+        <v>522</v>
+      </c>
+      <c r="H111" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>378</v>
+      </c>
+      <c r="D112" t="s">
+        <v>524</v>
+      </c>
+      <c r="H112" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>378</v>
+      </c>
+      <c r="D113" t="s">
+        <v>525</v>
+      </c>
+      <c r="H113" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>378</v>
+      </c>
+      <c r="D114" t="s">
+        <v>526</v>
+      </c>
+      <c r="H114" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>378</v>
+      </c>
+      <c r="D115" t="s">
+        <v>527</v>
+      </c>
+      <c r="H115" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>378</v>
+      </c>
+      <c r="D116" t="s">
+        <v>528</v>
+      </c>
+      <c r="H116" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>378</v>
+      </c>
+      <c r="D117" t="s">
+        <v>529</v>
+      </c>
+      <c r="H117" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>378</v>
+      </c>
+      <c r="D118" t="s">
+        <v>530</v>
+      </c>
+      <c r="H118" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>378</v>
+      </c>
+      <c r="D119" t="s">
+        <v>531</v>
+      </c>
+      <c r="H119" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" t="s">
+        <v>532</v>
+      </c>
+      <c r="H120" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>378</v>
+      </c>
+      <c r="D121" t="s">
+        <v>534</v>
+      </c>
+      <c r="H121" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>378</v>
+      </c>
+      <c r="D122" t="s">
+        <v>536</v>
+      </c>
+      <c r="H122" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" t="s">
+        <v>538</v>
+      </c>
+      <c r="H123" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>378</v>
+      </c>
+      <c r="D124" t="s">
+        <v>539</v>
+      </c>
+      <c r="H124" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>378</v>
+      </c>
+      <c r="D125" t="s">
+        <v>541</v>
+      </c>
+      <c r="H125" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126" t="s">
+        <v>542</v>
+      </c>
+      <c r="H126" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>378</v>
+      </c>
+      <c r="D127" t="s">
+        <v>544</v>
+      </c>
+      <c r="H127" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>378</v>
+      </c>
+      <c r="D128" t="s">
+        <v>546</v>
+      </c>
+      <c r="H128" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D129" t="s">
+        <v>547</v>
+      </c>
+      <c r="H129" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" t="s">
+        <v>549</v>
+      </c>
+      <c r="H130" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>378</v>
+      </c>
+      <c r="D131" t="s">
+        <v>550</v>
+      </c>
+      <c r="H131" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>378</v>
+      </c>
+      <c r="D132" t="s">
+        <v>551</v>
+      </c>
+      <c r="H132" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133" t="s">
+        <v>552</v>
+      </c>
+      <c r="H133" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>378</v>
+      </c>
+      <c r="D134" t="s">
+        <v>553</v>
+      </c>
+      <c r="H134" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>378</v>
+      </c>
+      <c r="D135" t="s">
+        <v>554</v>
+      </c>
+      <c r="H135" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>378</v>
+      </c>
+      <c r="D136" t="s">
+        <v>556</v>
+      </c>
+      <c r="H136" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137" t="s">
+        <v>557</v>
+      </c>
+      <c r="H137" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>378</v>
+      </c>
+      <c r="D138" t="s">
+        <v>559</v>
+      </c>
+      <c r="H138" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>378</v>
+      </c>
+      <c r="D139" t="s">
+        <v>561</v>
+      </c>
+      <c r="H139" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+      <c r="D140" t="s">
+        <v>563</v>
+      </c>
+      <c r="H140" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>378</v>
+      </c>
+      <c r="D141" t="s">
+        <v>564</v>
+      </c>
+      <c r="H141" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" t="s">
+        <v>565</v>
+      </c>
+      <c r="H142" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>378</v>
+      </c>
+      <c r="D143" t="s">
+        <v>566</v>
+      </c>
+      <c r="H143" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" t="s">
+        <v>567</v>
+      </c>
+      <c r="H144" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>378</v>
+      </c>
+      <c r="D145" t="s">
+        <v>569</v>
+      </c>
+      <c r="H145" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>378</v>
+      </c>
+      <c r="D146" t="s">
+        <v>570</v>
+      </c>
+      <c r="H146" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" t="s">
+        <v>571</v>
+      </c>
+      <c r="H147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+      <c r="D148" t="s">
+        <v>572</v>
+      </c>
+      <c r="H148" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>378</v>
+      </c>
+      <c r="D149" t="s">
+        <v>574</v>
+      </c>
+      <c r="H149" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>378</v>
+      </c>
+      <c r="D150" t="s">
+        <v>576</v>
+      </c>
+      <c r="H150" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>378</v>
+      </c>
+      <c r="D151" t="s">
+        <v>578</v>
+      </c>
+      <c r="H151" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>378</v>
+      </c>
+      <c r="D152" t="s">
+        <v>580</v>
+      </c>
+      <c r="H152" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>378</v>
+      </c>
+      <c r="D153" t="s">
+        <v>581</v>
+      </c>
+      <c r="H153" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>378</v>
+      </c>
+      <c r="D154" t="s">
+        <v>582</v>
+      </c>
+      <c r="H154" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>